--- a/2.0/Documents/T10-Invoice/Tests/ValidationOverviewPEPPOL&BII.xlsx
+++ b/2.0/Documents/T10-Invoice/Tests/ValidationOverviewPEPPOL&BII.xlsx
@@ -63,12 +63,6 @@
 OP-T10-R004</t>
   </si>
   <si>
-    <t>[EUGEN-T10-R026] x 2</t>
-  </si>
-  <si>
-    <t>[EUGEN-T10-R046]</t>
-  </si>
-  <si>
     <t>Warnings</t>
   </si>
   <si>
@@ -213,6 +207,12 @@
   </si>
   <si>
     <t>T10-0029-MissExemptReasonandVATOnLine.xml</t>
+  </si>
+  <si>
+    <t>[EUGEN-T10-R040]</t>
+  </si>
+  <si>
+    <t>EUGEN-T10-R026] x 2 EUGEN-T10-R046</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,10 +596,10 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -675,21 +675,21 @@
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
-        <v>13</v>
+      <c r="E7" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>11</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>11</v>
@@ -717,49 +717,49 @@
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
@@ -773,21 +773,21 @@
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>11</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
@@ -810,12 +810,12 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>11</v>
@@ -824,12 +824,12 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>11</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>11</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>11</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>11</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>11</v>
@@ -899,13 +899,13 @@
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
         <v>7</v>
@@ -913,13 +913,13 @@
     </row>
     <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="E24" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F24" t="s">
         <v>7</v>
@@ -927,13 +927,13 @@
     </row>
     <row r="25" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F25" t="s">
         <v>7</v>
@@ -941,13 +941,13 @@
     </row>
     <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
         <v>7</v>
@@ -955,13 +955,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
         <v>7</v>
@@ -969,13 +969,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
         <v>7</v>
@@ -983,13 +983,13 @@
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
         <v>7</v>

--- a/2.0/Documents/T10-Invoice/Tests/ValidationOverviewPEPPOL&BII.xlsx
+++ b/2.0/Documents/T10-Invoice/Tests/ValidationOverviewPEPPOL&BII.xlsx
@@ -575,7 +575,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
